--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value232.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value232.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7273561633973883</v>
+        <v>1.2025066614151</v>
       </c>
       <c r="B1">
-        <v>0.6971538052666805</v>
+        <v>2.143439292907715</v>
       </c>
       <c r="C1">
-        <v>0.7099821315258439</v>
+        <v>3.940133571624756</v>
       </c>
       <c r="D1">
-        <v>0.9254707949103889</v>
+        <v>3.303717136383057</v>
       </c>
       <c r="E1">
-        <v>1.511982070852237</v>
+        <v>1.118222594261169</v>
       </c>
     </row>
   </sheetData>
